--- a/m100_Tools_And_Helpers/DataFiles/12 Combinations.xlsx
+++ b/m100_Tools_And_Helpers/DataFiles/12 Combinations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rob\repos\LusasNoteBooks\m100_Tools_And_Helpers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rob\repos\LusasNoteBooks\m100_Tools_And_Helpers\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50407252-6A86-459E-8D55-AEE0A972A615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C1B49F-ECD4-46FF-8329-04F70C6DFC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="773" xr2:uid="{FDC71FF7-6F4E-4823-A2C1-2C9C6BED4684}"/>
+    <workbookView xWindow="28680" yWindow="1620" windowWidth="29040" windowHeight="15720" tabRatio="773" activeTab="2" xr2:uid="{FDC71FF7-6F4E-4823-A2C1-2C9C6BED4684}"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>Loadcase Name</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Wind Envelope</t>
   </si>
   <si>
-    <t>Thermal Envelope</t>
-  </si>
-  <si>
     <t>TLO Traffic Envelope</t>
   </si>
   <si>
@@ -175,6 +172,24 @@
   </si>
   <si>
     <t>SeismicFactor</t>
+  </si>
+  <si>
+    <t>Thermal Uniform</t>
+  </si>
+  <si>
+    <t>Thermal Gradient</t>
+  </si>
+  <si>
+    <t>Breaking And Traction</t>
+  </si>
+  <si>
+    <t>Earth pressure horizontal</t>
+  </si>
+  <si>
+    <t>Earth pressure vertical</t>
+  </si>
+  <si>
+    <t>Horizontal Envelope</t>
   </si>
 </sst>
 </file>
@@ -587,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71399A4-9D3B-436B-ABA7-597E97B8316E}">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -616,35 +631,35 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="F1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="L1" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="P1" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q1" s="4"/>
       <c r="S1" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T1" s="4"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -653,22 +668,22 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>0</v>
@@ -680,21 +695,21 @@
         <v>2</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -706,10 +721,10 @@
         <v>0.85</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="H3" s="1">
         <v>0.7</v>
@@ -721,7 +736,7 @@
         <v>0.5</v>
       </c>
       <c r="L3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M3" s="1">
         <v>0.95</v>
@@ -730,13 +745,13 @@
         <v>1.05</v>
       </c>
       <c r="P3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q3" s="1">
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T3" s="1">
         <v>1</v>
@@ -744,7 +759,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -756,7 +771,7 @@
         <v>0.85</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" s="1">
         <v>1.5</v>
@@ -773,13 +788,13 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="P4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="1">
         <v>1</v>
       </c>
       <c r="S4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T4" s="1">
         <v>1</v>
@@ -787,7 +802,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -799,10 +814,10 @@
         <v>0.85</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" s="1">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="H5" s="1">
         <v>0.7</v>
@@ -819,7 +834,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -831,10 +846,10 @@
         <v>0.85</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="1">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="H6" s="1">
         <v>0.7</v>
@@ -861,22 +876,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A548F276-FD02-4014-914C-5B832C8DB01E}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.21875" customWidth="1"/>
     <col min="2" max="2" width="17.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1"/>
+    <col min="4" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -884,71 +900,83 @@
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="str">
         <f>Actions!A3</f>
         <v>Permanent load</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="str">
         <f>Actions!A4</f>
         <v>SuperImposed</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="str">
         <f>Actions!A5</f>
         <v>Settlement</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="str">
         <f>Actions!A6</f>
         <v>Shrinkage</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
     </row>
   </sheetData>
@@ -960,21 +988,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A7A340-8596-4719-A177-6BE8E341CB07}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.21875" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -992,7 +1018,13 @@
         <v>TLO Traffic</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1001,10 +1033,10 @@
         <v>Rail Traffic</v>
       </c>
       <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
         <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1022,7 +1054,10 @@
         <v>Thermal</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1075,7 +1110,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1093,7 +1128,7 @@
         <v>Explosion</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1102,7 +1137,7 @@
         <v>Impact</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1161,7 +1196,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1179,7 +1214,7 @@
         <v>Seismic Horizontal</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
